--- a/src/main/resources/Template/wavsepTemplate.xlsx
+++ b/src/main/resources/Template/wavsepTemplate.xlsx
@@ -5163,15 +5163,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5179,6 +5170,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5535,7 +5535,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5980,8 +5980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O830"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6026,24 +6026,24 @@
       <c r="B3" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="68" t="s">
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="65" t="s">
+      <c r="G3" s="67"/>
+      <c r="H3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="69" t="s">
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="66" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="50"/>
@@ -6051,24 +6051,24 @@
     <row r="4" spans="1:15" s="7" customFormat="1">
       <c r="A4" s="28"/>
       <c r="B4" s="63"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="65" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67" t="s">
+      <c r="I4" s="70"/>
+      <c r="J4" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="65" t="s">
+      <c r="K4" s="70"/>
+      <c r="L4" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="69"/>
       <c r="O4" s="50"/>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" ht="17.25" thickBot="1">
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="36">
-        <f ca="1">COUNTIF(I:I,"*FALSE*")</f>
+        <f ca="1">COUNTIF(I:I,FALSE)-1</f>
         <v>0</v>
       </c>
       <c r="J6" s="42">
@@ -6155,11 +6155,11 @@
         <v>0</v>
       </c>
       <c r="L6" s="42">
-        <f ca="1">COUNTIF(L:L,"*TRUE*")</f>
+        <f ca="1">COUNTIF(L:L,TRUE)-1</f>
         <v>0</v>
       </c>
       <c r="M6" s="36">
-        <f ca="1">COUNTIF(M:M,"*FALSE*")</f>
+        <f ca="1">COUNTIF(M:M,FALSE)-1</f>
         <v>0</v>
       </c>
       <c r="N6" s="24">
@@ -17772,7 +17772,7 @@
   <dimension ref="A1:O830"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17817,24 +17817,24 @@
       <c r="B3" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="68" t="s">
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="65" t="s">
+      <c r="G3" s="67"/>
+      <c r="H3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="69" t="s">
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="66" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="50"/>
@@ -17842,24 +17842,24 @@
     <row r="4" spans="1:15" s="7" customFormat="1">
       <c r="A4" s="28"/>
       <c r="B4" s="63"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="65" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67" t="s">
+      <c r="I4" s="70"/>
+      <c r="J4" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="65" t="s">
+      <c r="K4" s="70"/>
+      <c r="L4" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="69"/>
       <c r="O4" s="50"/>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" ht="17.25" thickBot="1">
@@ -17946,11 +17946,11 @@
         <v>0</v>
       </c>
       <c r="L6" s="42">
-        <f ca="1">COUNTIF(L:L,"*TRUE*")</f>
+        <f ca="1">COUNTIF(L:L,TRUE)-1</f>
         <v>0</v>
       </c>
       <c r="M6" s="36">
-        <f ca="1">COUNTIF(M:M,"*FALSE*")</f>
+        <f ca="1">COUNTIF(M:M,FALSE)-1</f>
         <v>0</v>
       </c>
       <c r="N6" s="24">
@@ -22942,7 +22942,7 @@
   <dimension ref="A1:O830"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -22990,24 +22990,24 @@
       <c r="B3" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="68" t="s">
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="65" t="s">
+      <c r="G3" s="67"/>
+      <c r="H3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="68" t="s">
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="65" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="50"/>
@@ -23015,24 +23015,24 @@
     <row r="4" spans="1:15" s="7" customFormat="1">
       <c r="A4" s="28"/>
       <c r="B4" s="63"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="65" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67" t="s">
+      <c r="I4" s="70"/>
+      <c r="J4" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="65" t="s">
+      <c r="K4" s="70"/>
+      <c r="L4" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="66"/>
-      <c r="N4" s="65"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="68"/>
       <c r="O4" s="50"/>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" ht="17.25" thickBot="1">
@@ -28054,24 +28054,24 @@
       <c r="B3" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="65" t="s">
         <v>1212</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="68" t="s">
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="65" t="s">
+      <c r="G3" s="67"/>
+      <c r="H3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="69" t="s">
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="66" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="50"/>
@@ -28079,24 +28079,24 @@
     <row r="4" spans="1:15" s="7" customFormat="1">
       <c r="A4" s="28"/>
       <c r="B4" s="63"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="65" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="68" t="s">
         <v>1213</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67" t="s">
+      <c r="I4" s="70"/>
+      <c r="J4" s="69" t="s">
         <v>1214</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="65" t="s">
+      <c r="K4" s="70"/>
+      <c r="L4" s="68" t="s">
         <v>1215</v>
       </c>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="69"/>
       <c r="O4" s="50"/>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" ht="17.25" thickBot="1">
@@ -33431,7 +33431,7 @@
   <dimension ref="A1:O830"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -33476,24 +33476,24 @@
       <c r="B3" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="68" t="s">
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="65" t="s">
+      <c r="G3" s="67"/>
+      <c r="H3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="69" t="s">
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="66" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="50"/>
@@ -33501,24 +33501,24 @@
     <row r="4" spans="1:15" s="7" customFormat="1">
       <c r="A4" s="28"/>
       <c r="B4" s="63"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="65" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67" t="s">
+      <c r="I4" s="70"/>
+      <c r="J4" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="65" t="s">
+      <c r="K4" s="70"/>
+      <c r="L4" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="69"/>
       <c r="O4" s="50"/>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" ht="17.25" thickBot="1">
